--- a/config_Release/qhb_config.xlsx
+++ b/config_Release/qhb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JY\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,19 +44,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>20000,1000000</t>
+    <t>200000,10000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>20000,100000,1000000</t>
+    <t>5000000,50000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>500000,5000000</t>
+    <t>200000,1000000,10000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>500000,1000000,5000000</t>
+    <t>5000000,10000000,50000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +496,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E12:E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>10</v>
